--- a/REGULAR/OJT/ALEGRE, VIVENCIO.xlsx
+++ b/REGULAR/OJT/ALEGRE, VIVENCIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9BFEC-87D2-4F50-A319-C062DF86EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1081,7 +1080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1962,7 +1961,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2004,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2068,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2128,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2194,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2257,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2355,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2414,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2479,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2522,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2597,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2783,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2849,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,7 +2907,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2973,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3029,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3104,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3147,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3213,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3269,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3367,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,7 +3430,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,7 +3479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3497,25 +3496,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3527,13 +3526,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3542,14 +3541,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3853,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3863,7 +3862,7 @@
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3871,34 +3870,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2424" topLeftCell="A436"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2430" topLeftCell="A508" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
+      <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +3918,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3937,7 +3936,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3955,7 +3954,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3963,7 +3962,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3976,7 +3975,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3993,7 +3992,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>23</v>
@@ -4037,7 +4036,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>190.45300000000009</v>
+        <v>196.70300000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4047,12 +4046,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>407.75</v>
+        <v>414</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="52" t="s">
         <v>43</v>
@@ -4074,7 +4073,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="29" t="s">
         <v>44</v>
@@ -4092,7 +4091,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>34060</v>
       </c>
@@ -4112,7 +4111,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>34090</v>
       </c>
@@ -4136,7 +4135,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>34121</v>
       </c>
@@ -4156,7 +4155,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>34151</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>34182</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>34213</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>34243</v>
       </c>
@@ -4240,7 +4239,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>34274</v>
       </c>
@@ -4260,7 +4259,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>34304</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>34335</v>
       </c>
@@ -4322,7 +4321,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>34366</v>
       </c>
@@ -4342,7 +4341,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>34394</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>34425</v>
       </c>
@@ -4382,7 +4381,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>34455</v>
       </c>
@@ -4402,7 +4401,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>34486</v>
       </c>
@@ -4422,7 +4421,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>34516</v>
       </c>
@@ -4446,7 +4445,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>34547</v>
       </c>
@@ -4466,7 +4465,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>34578</v>
       </c>
@@ -4486,7 +4485,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>34608</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>34625</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>34639</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>34669</v>
       </c>
@@ -4556,7 +4555,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>46</v>
       </c>
@@ -4578,7 +4577,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>34700</v>
       </c>
@@ -4598,7 +4597,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>34731</v>
       </c>
@@ -4618,7 +4617,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>34759</v>
       </c>
@@ -4638,7 +4637,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>34790</v>
       </c>
@@ -4658,7 +4657,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>34820</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>34851</v>
       </c>
@@ -4704,7 +4703,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>34881</v>
       </c>
@@ -4724,7 +4723,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>34912</v>
       </c>
@@ -4744,7 +4743,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>34943</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>34973</v>
       </c>
@@ -4788,7 +4787,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>35004</v>
       </c>
@@ -4808,7 +4807,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>35034</v>
       </c>
@@ -4828,7 +4827,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>75</v>
       </c>
@@ -4850,7 +4849,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>35065</v>
       </c>
@@ -4870,7 +4869,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>35096</v>
       </c>
@@ -4890,7 +4889,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>35125</v>
       </c>
@@ -4910,7 +4909,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>35156</v>
       </c>
@@ -4930,7 +4929,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>35186</v>
       </c>
@@ -4950,7 +4949,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>35217</v>
       </c>
@@ -4970,7 +4969,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>35247</v>
       </c>
@@ -4990,7 +4989,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>35278</v>
       </c>
@@ -5010,7 +5009,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>35309</v>
       </c>
@@ -5030,7 +5029,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>35339</v>
       </c>
@@ -5050,7 +5049,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>35370</v>
       </c>
@@ -5070,7 +5069,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>35400</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -5112,7 +5111,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>73</v>
@@ -5134,7 +5133,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
         <v>47</v>
       </c>
@@ -5156,7 +5155,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>35431</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20" t="s">
         <v>73</v>
@@ -5204,7 +5203,7 @@
         <v>35091</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>35462</v>
       </c>
@@ -5224,7 +5223,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>35490</v>
       </c>
@@ -5244,7 +5243,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>35521</v>
       </c>
@@ -5264,7 +5263,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>35551</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>35582</v>
       </c>
@@ -5310,7 +5309,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>35612</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>35643</v>
       </c>
@@ -5356,7 +5355,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>35674</v>
       </c>
@@ -5376,7 +5375,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>35704</v>
       </c>
@@ -5396,7 +5395,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>35735</v>
       </c>
@@ -5416,7 +5415,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>35765</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
         <v>48</v>
       </c>
@@ -5462,7 +5461,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>35796</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>35827</v>
       </c>
@@ -5502,7 +5501,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>35855</v>
       </c>
@@ -5522,7 +5521,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
         <v>35886</v>
       </c>
@@ -5542,7 +5541,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>35916</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -5588,7 +5587,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>35947</v>
       </c>
@@ -5612,7 +5611,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>35977</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -5656,7 +5655,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>36008</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>36039</v>
       </c>
@@ -5700,7 +5699,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>36069</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -5746,7 +5745,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>36100</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>36112</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5789,7 +5788,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>36130</v>
       </c>
@@ -5813,7 +5812,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="50" t="s">
         <v>49</v>
       </c>
@@ -5835,7 +5834,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
         <v>36161</v>
       </c>
@@ -5859,7 +5858,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>36192</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>36197</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
@@ -5905,7 +5904,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>36220</v>
       </c>
@@ -5929,7 +5928,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>36251</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20" t="s">
         <v>99</v>
@@ -5975,7 +5974,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>36281</v>
       </c>
@@ -5999,7 +5998,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>104</v>
@@ -6016,7 +6015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>36312</v>
       </c>
@@ -6040,7 +6039,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20" t="s">
         <v>92</v>
@@ -6062,7 +6061,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20" t="s">
         <v>101</v>
@@ -6082,7 +6081,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>36342</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20" t="s">
         <v>107</v>
@@ -6123,7 +6122,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>36373</v>
       </c>
@@ -6147,7 +6146,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>36404</v>
       </c>
@@ -6171,7 +6170,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>36434</v>
       </c>
@@ -6195,7 +6194,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>36465</v>
       </c>
@@ -6219,7 +6218,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>36495</v>
       </c>
@@ -6243,7 +6242,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20" t="s">
         <v>85</v>
@@ -6263,7 +6262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20" t="s">
         <v>112</v>
@@ -6283,7 +6282,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="50" t="s">
         <v>50</v>
       </c>
@@ -6305,7 +6304,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>36526</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20" t="s">
         <v>85</v>
@@ -6351,7 +6350,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20" t="s">
         <v>114</v>
@@ -6368,7 +6367,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>36557</v>
       </c>
@@ -6392,7 +6391,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>36586</v>
       </c>
@@ -6416,7 +6415,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>36617</v>
       </c>
@@ -6440,7 +6439,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>36647</v>
       </c>
@@ -6464,7 +6463,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <v>36678</v>
       </c>
@@ -6488,7 +6487,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
         <v>36708</v>
       </c>
@@ -6512,7 +6511,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20" t="s">
         <v>85</v>
@@ -6532,7 +6531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>36739</v>
       </c>
@@ -6556,7 +6555,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>36770</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>36800</v>
       </c>
@@ -6604,7 +6603,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>36831</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="20" t="s">
         <v>92</v>
@@ -6652,7 +6651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>128</v>
@@ -6672,7 +6671,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>36861</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38"/>
       <c r="B132" s="20" t="s">
         <v>129</v>
@@ -6718,7 +6717,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="50" t="s">
         <v>51</v>
       </c>
@@ -6740,7 +6739,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>36892</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>132</v>
@@ -6781,7 +6780,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>36923</v>
       </c>
@@ -6801,7 +6800,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>36951</v>
       </c>
@@ -6821,7 +6820,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <v>36982</v>
       </c>
@@ -6845,7 +6844,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>37012</v>
       </c>
@@ -6869,7 +6868,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>37043</v>
       </c>
@@ -6893,7 +6892,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38"/>
       <c r="B141" s="20" t="s">
         <v>135</v>
@@ -6913,7 +6912,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>37073</v>
       </c>
@@ -6937,7 +6936,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>37104</v>
       </c>
@@ -6961,7 +6960,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>37135</v>
       </c>
@@ -6985,7 +6984,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
         <v>37165</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>138</v>
@@ -7031,7 +7030,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="54"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>37196</v>
       </c>
@@ -7055,7 +7054,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38"/>
       <c r="B148" s="20" t="s">
         <v>139</v>
@@ -7075,7 +7074,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
         <v>37226</v>
       </c>
@@ -7099,7 +7098,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="50" t="s">
         <v>52</v>
       </c>
@@ -7121,7 +7120,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>37257</v>
       </c>
@@ -7145,7 +7144,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>37288</v>
       </c>
@@ -7169,7 +7168,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>37316</v>
       </c>
@@ -7193,7 +7192,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>37347</v>
       </c>
@@ -7217,7 +7216,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="20" t="s">
         <v>76</v>
@@ -7239,7 +7238,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>37377</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>37382</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>85</v>
@@ -7285,7 +7284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>37408</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>37438</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>37446</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>37469</v>
       </c>
@@ -7355,7 +7354,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>37500</v>
       </c>
@@ -7375,7 +7374,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>37530</v>
       </c>
@@ -7395,7 +7394,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>37561</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7441,7 +7440,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="54"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>37591</v>
       </c>
@@ -7465,7 +7464,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7485,7 +7484,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="50" t="s">
         <v>53</v>
       </c>
@@ -7507,7 +7506,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>37622</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>119</v>
@@ -7550,7 +7549,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>37653</v>
       </c>
@@ -7574,7 +7573,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>37681</v>
       </c>
@@ -7598,7 +7597,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>37712</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>37721</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
         <v>37742</v>
       </c>
@@ -7644,7 +7643,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>37773</v>
       </c>
@@ -7664,7 +7663,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>37803</v>
       </c>
@@ -7688,7 +7687,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>85</v>
@@ -7708,7 +7707,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>37834</v>
       </c>
@@ -7732,7 +7731,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <v>37865</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38"/>
       <c r="B179" s="20" t="s">
         <v>93</v>
@@ -7778,7 +7777,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>37895</v>
       </c>
@@ -7802,7 +7801,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38">
         <v>37926</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38"/>
       <c r="B182" s="20" t="s">
         <v>155</v>
@@ -7848,7 +7847,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>37956</v>
       </c>
@@ -7872,7 +7871,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>156</v>
@@ -7892,7 +7891,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="50" t="s">
         <v>54</v>
       </c>
@@ -7914,7 +7913,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>37987</v>
       </c>
@@ -7938,7 +7937,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38">
         <v>38018</v>
       </c>
@@ -7962,7 +7961,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="20" t="s">
         <v>85</v>
@@ -7982,7 +7981,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>38047</v>
       </c>
@@ -8006,7 +8005,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>85</v>
@@ -8026,7 +8025,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <v>38078</v>
       </c>
@@ -8050,7 +8049,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>38108</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>163</v>
@@ -8096,7 +8095,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>38139</v>
       </c>
@@ -8120,7 +8119,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>38169</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>38200</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>38231</v>
       </c>
@@ -8192,7 +8191,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>38261</v>
       </c>
@@ -8216,7 +8215,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>38292</v>
       </c>
@@ -8240,7 +8239,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>38322</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>173</v>
@@ -8286,7 +8285,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="50" t="s">
         <v>55</v>
       </c>
@@ -8308,7 +8307,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>38353</v>
       </c>
@@ -8332,7 +8331,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>38384</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>38391</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>73</v>
@@ -8380,7 +8379,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="20" t="s">
         <v>175</v>
@@ -8400,7 +8399,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38">
         <v>38412</v>
       </c>
@@ -8424,7 +8423,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>85</v>
@@ -8444,7 +8443,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>38443</v>
       </c>
@@ -8468,7 +8467,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>85</v>
@@ -8488,7 +8487,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <v>38473</v>
       </c>
@@ -8512,7 +8511,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>38504</v>
       </c>
@@ -8536,7 +8535,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>85</v>
@@ -8556,7 +8555,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>38534</v>
       </c>
@@ -8580,7 +8579,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>38565</v>
       </c>
@@ -8604,7 +8603,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38">
         <v>38596</v>
       </c>
@@ -8628,7 +8627,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>38626</v>
       </c>
@@ -8652,7 +8651,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>38657</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38"/>
       <c r="B219" s="20" t="s">
         <v>186</v>
@@ -8695,7 +8694,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <v>38687</v>
       </c>
@@ -8719,7 +8718,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="50" t="s">
         <v>56</v>
       </c>
@@ -8741,7 +8740,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>38718</v>
       </c>
@@ -8765,7 +8764,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <v>38749</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>85</v>
@@ -8806,7 +8805,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>85</v>
@@ -8823,7 +8822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="20" t="s">
         <v>140</v>
@@ -8840,7 +8839,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38">
         <v>38777</v>
       </c>
@@ -8864,7 +8863,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <v>38808</v>
       </c>
@@ -8888,7 +8887,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>78</v>
@@ -8907,7 +8906,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38">
         <v>38838</v>
       </c>
@@ -8931,7 +8930,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>38869</v>
       </c>
@@ -8955,7 +8954,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38">
         <v>38899</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>38925</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>198</v>
@@ -9001,7 +9000,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>38930</v>
       </c>
@@ -9025,7 +9024,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38">
         <v>38961</v>
       </c>
@@ -9049,7 +9048,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>38991</v>
       </c>
@@ -9073,7 +9072,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38">
         <v>39022</v>
       </c>
@@ -9097,7 +9096,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>39052</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>203</v>
@@ -9143,7 +9142,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="50" t="s">
         <v>57</v>
       </c>
@@ -9165,7 +9164,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38">
         <v>39083</v>
       </c>
@@ -9189,7 +9188,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>39114</v>
       </c>
@@ -9213,7 +9212,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>39142</v>
       </c>
@@ -9237,7 +9236,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>39173</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>207</v>
@@ -9281,7 +9280,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>39203</v>
       </c>
@@ -9305,7 +9304,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>39234</v>
       </c>
@@ -9329,7 +9328,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>39264</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>133</v>
@@ -9373,7 +9372,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>39295</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>39326</v>
       </c>
@@ -9421,7 +9420,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>39356</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -9465,7 +9464,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38">
         <v>39387</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38"/>
       <c r="B255" s="20" t="s">
         <v>135</v>
@@ -9511,7 +9510,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>39417</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>39442</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38"/>
       <c r="B257" s="20" t="s">
         <v>214</v>
@@ -9557,7 +9556,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="50" t="s">
         <v>58</v>
       </c>
@@ -9579,7 +9578,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="38">
         <v>39448</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38"/>
       <c r="B260" s="20" t="s">
         <v>215</v>
@@ -9623,7 +9622,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>39479</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38"/>
       <c r="B262" s="20" t="s">
         <v>217</v>
@@ -9667,7 +9666,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38">
         <v>39508</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>39539</v>
       </c>
@@ -9715,7 +9714,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>39569</v>
       </c>
@@ -9739,7 +9738,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>39600</v>
       </c>
@@ -9763,7 +9762,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>39630</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>91</v>
@@ -9808,7 +9807,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38"/>
       <c r="B269" s="20" t="s">
         <v>222</v>
@@ -9825,7 +9824,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38">
         <v>39661</v>
       </c>
@@ -9849,7 +9848,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>39692</v>
       </c>
@@ -9873,7 +9872,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>39722</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>73</v>
@@ -9918,7 +9917,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38"/>
       <c r="B274" s="20" t="s">
         <v>229</v>
@@ -9935,7 +9934,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>39753</v>
       </c>
@@ -9959,7 +9958,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38">
         <v>39783</v>
       </c>
@@ -9983,7 +9982,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="50" t="s">
         <v>59</v>
       </c>
@@ -10005,7 +10004,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>39814</v>
       </c>
@@ -10029,7 +10028,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38">
         <v>39845</v>
       </c>
@@ -10053,7 +10052,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>39873</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>85</v>
@@ -10094,7 +10093,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38"/>
       <c r="B282" s="20" t="s">
         <v>234</v>
@@ -10111,7 +10110,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>39904</v>
       </c>
@@ -10135,7 +10134,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>39934</v>
       </c>
@@ -10159,7 +10158,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38">
         <v>39965</v>
       </c>
@@ -10183,7 +10182,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38">
         <v>39995</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38"/>
       <c r="B287" s="20" t="s">
         <v>238</v>
@@ -10224,7 +10223,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>40026</v>
       </c>
@@ -10248,7 +10247,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>40057</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <v>40087</v>
       </c>
@@ -10296,7 +10295,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>40118</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38"/>
       <c r="B292" s="20" t="s">
         <v>241</v>
@@ -10339,7 +10338,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>40148</v>
       </c>
@@ -10363,7 +10362,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="50" t="s">
         <v>60</v>
       </c>
@@ -10385,7 +10384,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>40179</v>
       </c>
@@ -10409,7 +10408,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>40210</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38"/>
       <c r="B297" s="20" t="s">
         <v>248</v>
@@ -10450,7 +10449,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>40238</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38"/>
       <c r="B299" s="20" t="s">
         <v>249</v>
@@ -10494,7 +10493,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38">
         <v>40269</v>
       </c>
@@ -10518,7 +10517,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>40299</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38"/>
       <c r="B302" s="20" t="s">
         <v>251</v>
@@ -10562,7 +10561,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>40330</v>
       </c>
@@ -10586,7 +10585,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>40360</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>254</v>
@@ -10632,7 +10631,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>40391</v>
       </c>
@@ -10656,7 +10655,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>40422</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>256</v>
@@ -10702,7 +10701,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>40452</v>
       </c>
@@ -10726,7 +10725,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>40483</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>40486</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38"/>
       <c r="B311" s="20" t="s">
         <v>73</v>
@@ -10774,7 +10773,7 @@
         <v>40506</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>258</v>
@@ -10796,7 +10795,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>264</v>
@@ -10813,7 +10812,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>40513</v>
       </c>
@@ -10837,7 +10836,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="50" t="s">
         <v>61</v>
       </c>
@@ -10859,7 +10858,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>40544</v>
       </c>
@@ -10883,7 +10882,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>40575</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>266</v>
@@ -10924,7 +10923,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38">
         <v>40603</v>
       </c>
@@ -10948,7 +10947,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>40634</v>
       </c>
@@ -10972,7 +10971,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <v>40664</v>
       </c>
@@ -10996,7 +10995,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38">
         <v>40695</v>
       </c>
@@ -11020,7 +11019,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>40725</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>268</v>
@@ -11064,7 +11063,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>40756</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>269</v>
@@ -11112,7 +11111,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>270</v>
@@ -11132,7 +11131,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38">
         <v>40787</v>
       </c>
@@ -11156,7 +11155,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>40817</v>
       </c>
@@ -11180,7 +11179,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <v>40848</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38"/>
       <c r="B331" s="20" t="s">
         <v>253</v>
@@ -11228,7 +11227,7 @@
         <v>40865</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38"/>
       <c r="B332" s="20" t="s">
         <v>112</v>
@@ -11250,7 +11249,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>86</v>
@@ -11270,7 +11269,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <v>40878</v>
       </c>
@@ -11294,7 +11293,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
         <v>62</v>
       </c>
@@ -11316,7 +11315,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38">
         <v>40909</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>276</v>
@@ -11357,7 +11356,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <v>40940</v>
       </c>
@@ -11381,7 +11380,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
         <v>40969</v>
       </c>
@@ -11405,7 +11404,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="20" t="s">
         <v>96</v>
@@ -11425,7 +11424,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>41000</v>
       </c>
@@ -11449,7 +11448,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38">
         <v>41030</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38"/>
       <c r="B343" s="20" t="s">
         <v>73</v>
@@ -11495,7 +11494,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>128</v>
@@ -11515,7 +11514,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>41061</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38"/>
       <c r="B346" s="20" t="s">
         <v>120</v>
@@ -11561,7 +11560,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38">
         <v>41091</v>
       </c>
@@ -11587,7 +11586,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38"/>
       <c r="B348" s="20" t="s">
         <v>73</v>
@@ -11609,7 +11608,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38"/>
       <c r="B349" s="20" t="s">
         <v>279</v>
@@ -11629,7 +11628,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>41122</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38"/>
       <c r="B351" s="20" t="s">
         <v>73</v>
@@ -11677,7 +11676,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>280</v>
@@ -11697,7 +11696,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38">
         <v>41153</v>
       </c>
@@ -11721,7 +11720,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <v>41183</v>
       </c>
@@ -11745,7 +11744,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>41214</v>
       </c>
@@ -11769,7 +11768,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38">
         <v>41244</v>
       </c>
@@ -11793,7 +11792,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
         <v>63</v>
       </c>
@@ -11815,7 +11814,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <v>41275</v>
       </c>
@@ -11839,7 +11838,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>41306</v>
       </c>
@@ -11863,7 +11862,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>41334</v>
       </c>
@@ -11887,7 +11886,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38">
         <v>41365</v>
       </c>
@@ -11911,7 +11910,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
         <v>41395</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38"/>
       <c r="B363" s="20" t="s">
         <v>290</v>
@@ -11955,7 +11954,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
         <v>41426</v>
       </c>
@@ -11979,7 +11978,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <v>41456</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38"/>
       <c r="B366" s="20" t="s">
         <v>292</v>
@@ -12023,7 +12022,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
         <v>41487</v>
       </c>
@@ -12047,7 +12046,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38">
         <v>41518</v>
       </c>
@@ -12071,7 +12070,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
         <v>41548</v>
       </c>
@@ -12095,7 +12094,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
         <v>41579</v>
       </c>
@@ -12119,7 +12118,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38">
         <v>41609</v>
       </c>
@@ -12145,7 +12144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38"/>
       <c r="B372" s="20" t="s">
         <v>85</v>
@@ -12162,7 +12161,7 @@
         <v>41634</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>297</v>
@@ -12179,7 +12178,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="50" t="s">
         <v>64</v>
       </c>
@@ -12201,7 +12200,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38">
         <v>41640</v>
       </c>
@@ -12225,7 +12224,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38"/>
       <c r="B376" s="20" t="s">
         <v>301</v>
@@ -12245,7 +12244,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38">
         <v>41671</v>
       </c>
@@ -12269,7 +12268,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38">
         <v>41699</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>253</v>
@@ -12315,7 +12314,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38"/>
       <c r="B380" s="20" t="s">
         <v>303</v>
@@ -12335,7 +12334,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38">
         <v>41730</v>
       </c>
@@ -12359,7 +12358,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <v>41760</v>
       </c>
@@ -12383,7 +12382,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38">
         <v>41791</v>
       </c>
@@ -12407,7 +12406,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <v>41821</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>86</v>
@@ -12451,7 +12450,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38">
         <v>41852</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="38">
         <v>41883</v>
       </c>
@@ -12499,7 +12498,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <v>41913</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>253</v>
@@ -12547,7 +12546,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38"/>
       <c r="B390" s="20" t="s">
         <v>305</v>
@@ -12567,7 +12566,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <v>41944</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38"/>
       <c r="B392" s="20" t="s">
         <v>306</v>
@@ -12613,7 +12612,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38">
         <v>41974</v>
       </c>
@@ -12637,7 +12636,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="50" t="s">
         <v>65</v>
       </c>
@@ -12659,7 +12658,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38">
         <v>42005</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38"/>
       <c r="B396" s="20" t="s">
         <v>168</v>
@@ -12700,7 +12699,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38">
         <v>42036</v>
       </c>
@@ -12721,7 +12720,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38">
         <v>42064</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38"/>
       <c r="B399" s="20" t="s">
         <v>85</v>
@@ -12765,7 +12764,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38"/>
       <c r="B400" s="20" t="s">
         <v>96</v>
@@ -12785,7 +12784,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38">
         <v>42095</v>
       </c>
@@ -12809,7 +12808,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="38">
         <v>42125</v>
       </c>
@@ -12833,7 +12832,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38">
         <v>42156</v>
       </c>
@@ -12857,7 +12856,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38">
         <v>42186</v>
       </c>
@@ -12881,7 +12880,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38">
         <v>42217</v>
       </c>
@@ -12905,7 +12904,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <v>42248</v>
       </c>
@@ -12929,7 +12928,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38">
         <v>42278</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38"/>
       <c r="B408" s="20" t="s">
         <v>253</v>
@@ -12977,7 +12976,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38"/>
       <c r="B409" s="20" t="s">
         <v>81</v>
@@ -12999,7 +12998,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38"/>
       <c r="B410" s="20" t="s">
         <v>314</v>
@@ -13019,7 +13018,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38">
         <v>42309</v>
       </c>
@@ -13043,7 +13042,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="38">
         <v>42339</v>
       </c>
@@ -13067,7 +13066,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="50" t="s">
         <v>66</v>
       </c>
@@ -13089,7 +13088,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38">
         <v>42370</v>
       </c>
@@ -13113,7 +13112,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38">
         <v>42401</v>
       </c>
@@ -13137,7 +13136,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38">
         <v>42430</v>
       </c>
@@ -13161,7 +13160,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38">
         <v>42461</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38"/>
       <c r="B418" s="20" t="s">
         <v>85</v>
@@ -13205,7 +13204,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38"/>
       <c r="B419" s="20" t="s">
         <v>148</v>
@@ -13225,7 +13224,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38"/>
       <c r="B420" s="20" t="s">
         <v>85</v>
@@ -13243,7 +13242,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38">
         <v>42491</v>
       </c>
@@ -13267,7 +13266,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>258</v>
@@ -13289,7 +13288,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <v>42522</v>
       </c>
@@ -13313,7 +13312,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38"/>
       <c r="B424" s="20" t="s">
         <v>73</v>
@@ -13335,7 +13334,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38">
         <v>42552</v>
       </c>
@@ -13355,7 +13354,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="38">
         <v>42583</v>
       </c>
@@ -13375,7 +13374,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <v>42614</v>
       </c>
@@ -13395,7 +13394,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38">
         <v>42644</v>
       </c>
@@ -13415,7 +13414,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38">
         <v>42675</v>
       </c>
@@ -13435,7 +13434,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38">
         <v>42705</v>
       </c>
@@ -13459,7 +13458,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="50" t="s">
         <v>67</v>
       </c>
@@ -13481,7 +13480,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38">
         <v>42736</v>
       </c>
@@ -13501,7 +13500,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38">
         <v>42767</v>
       </c>
@@ -13521,7 +13520,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38">
         <v>42795</v>
       </c>
@@ -13541,7 +13540,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38">
         <v>42826</v>
       </c>
@@ -13561,7 +13560,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38">
         <v>42856</v>
       </c>
@@ -13581,7 +13580,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38">
         <v>42887</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>85</v>
@@ -13622,7 +13621,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38"/>
       <c r="B439" s="20" t="s">
         <v>85</v>
@@ -13639,7 +13638,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38">
         <v>42917</v>
       </c>
@@ -13659,7 +13658,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="38">
         <v>42948</v>
       </c>
@@ -13679,7 +13678,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38">
         <v>42979</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
       <c r="B443" s="20" t="s">
         <v>73</v>
@@ -13724,7 +13723,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38">
         <v>43009</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38">
         <v>43040</v>
       </c>
@@ -13770,7 +13769,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38">
         <v>43070</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="50" t="s">
         <v>68</v>
       </c>
@@ -13818,7 +13817,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38">
         <v>43101</v>
       </c>
@@ -13842,7 +13841,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38">
         <v>43132</v>
       </c>
@@ -13862,7 +13861,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38">
         <v>43160</v>
       </c>
@@ -13882,7 +13881,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38">
         <v>43191</v>
       </c>
@@ -13902,7 +13901,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38">
         <v>43221</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38"/>
       <c r="B453" s="20" t="s">
         <v>85</v>
@@ -13945,7 +13944,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38">
         <v>43252</v>
       </c>
@@ -13965,7 +13964,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38">
         <v>43282</v>
       </c>
@@ -13985,7 +13984,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="38">
         <v>43313</v>
       </c>
@@ -14005,7 +14004,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38">
         <v>43344</v>
       </c>
@@ -14025,7 +14024,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38">
         <v>43374</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38">
         <v>43405</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38">
         <v>43435</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="50" t="s">
         <v>69</v>
       </c>
@@ -14125,7 +14124,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38">
         <v>43466</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="38"/>
       <c r="B463" s="20" t="s">
         <v>76</v>
@@ -14168,7 +14167,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -14185,7 +14184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <v>43497</v>
       </c>
@@ -14205,7 +14204,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38">
         <v>43525</v>
       </c>
@@ -14225,7 +14224,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38">
         <v>43556</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38">
         <v>43586</v>
       </c>
@@ -14271,7 +14270,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38">
         <v>43617</v>
       </c>
@@ -14291,7 +14290,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38">
         <v>43647</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
       <c r="B471" s="20" t="s">
         <v>78</v>
@@ -14339,7 +14338,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38">
         <v>43678</v>
       </c>
@@ -14359,7 +14358,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38">
         <v>43709</v>
       </c>
@@ -14379,7 +14378,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38">
         <v>43739</v>
       </c>
@@ -14399,7 +14398,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38">
         <v>43770</v>
       </c>
@@ -14419,7 +14418,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38">
         <v>43800</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38"/>
       <c r="B477" s="20" t="s">
         <v>85</v>
@@ -14465,7 +14464,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="50" t="s">
         <v>70</v>
       </c>
@@ -14487,7 +14486,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38">
         <v>43831</v>
       </c>
@@ -14507,7 +14506,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38">
         <v>43862</v>
       </c>
@@ -14529,7 +14528,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38">
         <v>43891</v>
       </c>
@@ -14549,7 +14548,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38">
         <v>43922</v>
       </c>
@@ -14569,7 +14568,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38">
         <v>43952</v>
       </c>
@@ -14589,7 +14588,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="38">
         <v>43983</v>
       </c>
@@ -14609,7 +14608,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38">
         <v>44013</v>
       </c>
@@ -14635,7 +14634,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="38"/>
       <c r="B486" s="20" t="s">
         <v>85</v>
@@ -14655,7 +14654,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="38">
         <v>44044</v>
       </c>
@@ -14675,7 +14674,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="38">
         <v>44075</v>
       </c>
@@ -14695,7 +14694,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="38">
         <v>44105</v>
       </c>
@@ -14715,7 +14714,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="38">
         <v>44136</v>
       </c>
@@ -14735,7 +14734,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="38">
         <v>44166</v>
       </c>
@@ -14759,7 +14758,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="50" t="s">
         <v>342</v>
       </c>
@@ -14777,7 +14776,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="38">
         <v>44197</v>
       </c>
@@ -14797,7 +14796,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="38">
         <v>44228</v>
       </c>
@@ -14817,7 +14816,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="38">
         <v>44256</v>
       </c>
@@ -14837,7 +14836,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="38">
         <v>44287</v>
       </c>
@@ -14857,7 +14856,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="38">
         <v>44317</v>
       </c>
@@ -14877,7 +14876,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="38">
         <v>44348</v>
       </c>
@@ -14897,7 +14896,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="38">
         <v>44378</v>
       </c>
@@ -14917,7 +14916,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="38">
         <v>44409</v>
       </c>
@@ -14937,7 +14936,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="38">
         <v>44440</v>
       </c>
@@ -14957,7 +14956,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="38">
         <v>44470</v>
       </c>
@@ -14977,7 +14976,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="38">
         <v>44501</v>
       </c>
@@ -14997,7 +14996,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <v>44531</v>
       </c>
@@ -15021,7 +15020,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="50" t="s">
         <v>343</v>
       </c>
@@ -15039,7 +15038,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="38">
         <v>44562</v>
       </c>
@@ -15059,7 +15058,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="38">
         <v>44593</v>
       </c>
@@ -15079,7 +15078,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="38">
         <v>44621</v>
       </c>
@@ -15099,7 +15098,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="38">
         <v>44652</v>
       </c>
@@ -15119,7 +15118,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="38">
         <v>44682</v>
       </c>
@@ -15139,7 +15138,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="38">
         <v>44713</v>
       </c>
@@ -15159,7 +15158,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="38">
         <v>44743</v>
       </c>
@@ -15179,7 +15178,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="38">
         <v>44774</v>
       </c>
@@ -15199,7 +15198,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="38">
         <v>44805</v>
       </c>
@@ -15219,7 +15218,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="38">
         <v>44835</v>
       </c>
@@ -15239,7 +15238,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="38">
         <v>44866</v>
       </c>
@@ -15259,7 +15258,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="38">
         <v>44896</v>
       </c>
@@ -15285,7 +15284,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="38"/>
       <c r="B518" s="20" t="s">
         <v>112</v>
@@ -15305,7 +15304,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="50" t="s">
         <v>344</v>
       </c>
@@ -15323,7 +15322,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="38">
         <v>44927</v>
       </c>
@@ -15343,7 +15342,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="38">
         <v>44958</v>
       </c>
@@ -15363,7 +15362,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="38">
         <v>44986</v>
       </c>
@@ -15383,7 +15382,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="38">
         <v>45017</v>
       </c>
@@ -15403,7 +15402,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="38">
         <v>45047</v>
       </c>
@@ -15423,87 +15422,107 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A525" s="38"/>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="38">
+        <v>45078</v>
+      </c>
       <c r="B525" s="20"/>
-      <c r="C525" s="13"/>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D525" s="37"/>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="37"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A526" s="38"/>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" s="38">
+        <v>45108</v>
+      </c>
       <c r="B526" s="20"/>
-      <c r="C526" s="13"/>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="37"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H526" s="37"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="38"/>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="38">
+        <v>45139</v>
+      </c>
       <c r="B527" s="20"/>
-      <c r="C527" s="13"/>
+      <c r="C527" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D527" s="37"/>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G527" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H527" s="37"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A528" s="38"/>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" s="38">
+        <v>45170</v>
+      </c>
       <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="37"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="37"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A529" s="38"/>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" s="38">
+        <v>45200</v>
+      </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="37"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H529" s="37"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="38"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15519,7 +15538,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="55"/>
       <c r="B531" s="15"/>
       <c r="C531" s="39"/>
@@ -15550,10 +15569,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15576,29 +15595,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -15611,7 +15630,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -15640,7 +15659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>104.5</v>
       </c>
@@ -15670,17 +15689,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>346</v>
       </c>
@@ -15704,10 +15723,10 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>598.20300000000009</v>
+        <v>610.70300000000009</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -15735,7 +15754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -15761,7 +15780,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -15787,7 +15806,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -15813,7 +15832,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -15839,7 +15858,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -15865,7 +15884,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -15891,7 +15910,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -15917,7 +15936,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -15937,7 +15956,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -15957,7 +15976,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -15977,7 +15996,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -15998,7 +16017,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -16019,7 +16038,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -16040,7 +16059,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -16061,7 +16080,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -16082,7 +16101,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -16103,7 +16122,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -16124,7 +16143,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -16145,7 +16164,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -16166,7 +16185,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -16187,7 +16206,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -16208,7 +16227,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -16229,7 +16248,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -16250,7 +16269,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -16271,7 +16290,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -16292,7 +16311,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -16313,7 +16332,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -16334,7 +16353,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -16355,7 +16374,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -16376,7 +16395,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -16397,7 +16416,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -16406,7 +16425,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -16415,7 +16434,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -16424,7 +16443,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -16433,7 +16452,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -16442,7 +16461,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -16451,7 +16470,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -16460,7 +16479,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -16469,7 +16488,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -16478,7 +16497,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -16487,7 +16506,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -16496,7 +16515,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -16505,7 +16524,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -16514,7 +16533,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -16523,7 +16542,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -16532,7 +16551,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -16541,7 +16560,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -16550,7 +16569,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -16559,7 +16578,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -16568,7 +16587,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -16577,7 +16596,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -16586,7 +16605,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -16595,7 +16614,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -16604,7 +16623,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -16613,7 +16632,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -16622,7 +16641,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -16631,7 +16650,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -16640,7 +16659,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -16649,7 +16668,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -16658,7 +16677,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
